--- a/xlsx/Digg_intext.xlsx
+++ b/xlsx/Digg_intext.xlsx
@@ -29,7 +29,7 @@
     <t>科技</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Digg</t>
+    <t>政策_政策_维基百科_Digg</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>世界新聞</t>
+    <t>世界新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F</t>
